--- a/de13.xlsx
+++ b/de13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>BẢNG TÍNH TIỀN THUÊ MÁY TÍNH TRUY CẬP INTERNET</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>TĐXL vừa</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -212,9 +227,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +257,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,15 +282,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2580919</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>2447569</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>103993</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152083</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580243</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>113983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -292,8 +307,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895619" y="1866901"/>
+          <a:off x="5762269" y="3257551"/>
           <a:ext cx="6571824" cy="2666682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647373</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="5143500"/>
+          <a:ext cx="2619048" cy="1866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,380 +653,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7">
+      <c r="E4" s="7"/>
+      <c r="F4" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.72222222222222221</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.93055555555555547</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>10000</v>
       </c>
     </row>

--- a/de13.xlsx
+++ b/de13.xlsx
@@ -282,15 +282,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2447569</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>1371244</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>580243</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>113983</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113518</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -307,7 +307,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762269" y="3257551"/>
+          <a:off x="4685944" y="4362451"/>
           <a:ext cx="6571824" cy="2666682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -319,16 +319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647373</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9292</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>113973</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -351,7 +351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="5143500"/>
+          <a:off x="809625" y="4562475"/>
           <a:ext cx="2619048" cy="1866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
